--- a/data/GroundTruth/LandCover.xlsx
+++ b/data/GroundTruth/LandCover.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YunzZhu\Box\2022_Spring\STA208\FinalProject\STA_208_Final_RS_Classification\data\GroundTruth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{17F23C46-8686-467C-906A-9645A0FA016F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4680F788-590C-4B89-A3D1-B147F8ED29A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390"/>
+    <workbookView xWindow="38400" yWindow="2370" windowWidth="18645" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LandCover" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="103">
   <si>
     <t>groundType</t>
   </si>
@@ -324,15 +336,20 @@
   </si>
   <si>
     <t>reclassify</t>
+  </si>
+  <si>
+    <t>Mint</t>
+  </si>
+  <si>
+    <t>Nectarines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -829,9 +846,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -874,10 +890,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -887,50 +902,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1241,16 +1255,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="G11" sqref="G11:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -1278,22 +1292,25 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>7342231</v>
+      <c r="B2">
+        <v>117934</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>114438</v>
+      <c r="B3">
+        <v>209832</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1305,10 +1322,10 @@
         <f>VLOOKUP(D3,$G$3:$H$22,2,FALSE)</f>
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1316,8 +1333,8 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>467</v>
+      <c r="B4">
+        <v>1348</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1329,10 +1346,10 @@
         <f>VLOOKUP(D4,$G$3:$H$22,2,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1340,8 +1357,8 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>140653</v>
+      <c r="B5">
+        <v>631669</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1353,10 +1370,10 @@
         <f>VLOOKUP(D5,$G$3:$H$22,2,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1364,8 +1381,8 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>1994</v>
+      <c r="B6">
+        <v>2207</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1377,10 +1394,10 @@
         <f>VLOOKUP(D6,$G$3:$H$22,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1388,8 +1405,8 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>8</v>
+      <c r="B7">
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1401,10 +1418,10 @@
         <f>VLOOKUP(D7,$G$3:$H$22,2,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1412,8 +1429,8 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>141675</v>
+      <c r="B8">
+        <v>203029</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -1425,10 +1442,10 @@
         <f>VLOOKUP(D8,$G$3:$H$22,2,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1436,8 +1453,8 @@
       <c r="A9">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
-        <v>1901</v>
+      <c r="B9">
+        <v>2746</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1449,10 +1466,10 @@
         <f>VLOOKUP(D9,$G$3:$H$22,2,FALSE)</f>
         <v>18</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>7</v>
       </c>
     </row>
@@ -1460,8 +1477,8 @@
       <c r="A10">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
-        <v>1122</v>
+      <c r="B10">
+        <v>2780</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1473,46 +1490,46 @@
         <f>VLOOKUP(D10,$G$3:$H$22,2,FALSE)</f>
         <v>18</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1">
-        <v>57826</v>
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <f>VLOOKUP(D11,$G$3:$H$22,2,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="G11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>61887</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>88</v>
@@ -1521,22 +1538,22 @@
         <f>VLOOKUP(D12,$G$3:$H$22,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1">
-        <v>911</v>
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -1545,22 +1562,22 @@
         <f>VLOOKUP(D13,$G$3:$H$22,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1">
-        <v>340432</v>
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>978</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
         <v>88</v>
@@ -1569,22 +1586,22 @@
         <f>VLOOKUP(D14,$G$3:$H$22,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1">
-        <v>7628</v>
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>408073</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>88</v>
@@ -1593,22 +1610,22 @@
         <f>VLOOKUP(D15,$G$3:$H$22,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1">
-        <v>42848</v>
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>8970</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
         <v>88</v>
@@ -1617,22 +1634,22 @@
         <f>VLOOKUP(D16,$G$3:$H$22,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1">
-        <v>287</v>
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>61047</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
         <v>88</v>
@@ -1641,46 +1658,46 @@
         <f>VLOOKUP(D17,$G$3:$H$22,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E18">
         <f>VLOOKUP(D18,$G$3:$H$22,2,FALSE)</f>
-        <v>15</v>
-      </c>
-      <c r="G18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1">
-        <v>38677</v>
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
         <v>94</v>
@@ -1689,112 +1706,112 @@
         <f>VLOOKUP(D19,$G$3:$H$22,2,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1">
-        <v>405394</v>
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>42806</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="E20">
         <f>VLOOKUP(D20,$G$3:$H$22,2,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="G20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>37</v>
-      </c>
-      <c r="B21" s="1">
-        <v>225797</v>
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>521526</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <f>VLOOKUP(D21,$G$3:$H$22,2,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="G21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>39</v>
-      </c>
-      <c r="B22" s="1">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>308647</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E22">
         <f>VLOOKUP(D22,$G$3:$H$22,2,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="G22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>42</v>
-      </c>
-      <c r="B23" s="1">
-        <v>11259</v>
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>465</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E23">
         <f>VLOOKUP(D23,$G$3:$H$22,2,FALSE)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>17520</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>98</v>
@@ -1806,85 +1823,85 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>44</v>
-      </c>
-      <c r="B25" s="1">
-        <v>8085</v>
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E25">
         <f>VLOOKUP(D25,$G$3:$H$22,2,FALSE)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>46</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>9732</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <f>VLOOKUP(D26,$G$3:$H$22,2,FALSE)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>47</v>
-      </c>
-      <c r="B27" s="1">
-        <v>635</v>
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E27">
         <f>VLOOKUP(D27,$G$3:$H$22,2,FALSE)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>48</v>
-      </c>
-      <c r="B28" s="1">
-        <v>5626</v>
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>737</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <f>VLOOKUP(D28,$G$3:$H$22,2,FALSE)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>49</v>
-      </c>
-      <c r="B29" s="1">
-        <v>466</v>
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>8626</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
         <v>99</v>
@@ -1896,13 +1913,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>50</v>
-      </c>
-      <c r="B30" s="1">
-        <v>7137</v>
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>1251</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>99</v>
@@ -1914,49 +1931,49 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>51</v>
-      </c>
-      <c r="B31" s="1">
-        <v>94</v>
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>8974</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E31">
         <f>VLOOKUP(D31,$G$3:$H$22,2,FALSE)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>53</v>
-      </c>
-      <c r="B32" s="1">
-        <v>898</v>
+        <v>51</v>
+      </c>
+      <c r="B32">
+        <v>233</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E32">
         <f>VLOOKUP(D32,$G$3:$H$22,2,FALSE)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>54</v>
-      </c>
-      <c r="B33" s="1">
-        <v>230378</v>
+        <v>53</v>
+      </c>
+      <c r="B33">
+        <v>1663</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
         <v>99</v>
@@ -1968,103 +1985,103 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>57</v>
-      </c>
-      <c r="B34" s="1">
-        <v>715</v>
+        <v>54</v>
+      </c>
+      <c r="B34">
+        <v>299327</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="E34">
         <f>VLOOKUP(D34,$G$3:$H$22,2,FALSE)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>58</v>
-      </c>
-      <c r="B35" s="1">
-        <v>167860</v>
+        <v>57</v>
+      </c>
+      <c r="B35">
+        <v>1335</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <f>VLOOKUP(D35,$G$3:$H$22,2,FALSE)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>59</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>181369</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E36">
         <f>VLOOKUP(D36,$G$3:$H$22,2,FALSE)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>61</v>
-      </c>
-      <c r="B37" s="1">
-        <v>403861</v>
+        <v>59</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E37">
         <f>VLOOKUP(D37,$G$3:$H$22,2,FALSE)</f>
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>66</v>
-      </c>
-      <c r="B38" s="1">
-        <v>9468</v>
+        <v>61</v>
+      </c>
+      <c r="B38">
+        <v>771604</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E38">
         <f>VLOOKUP(D38,$G$3:$H$22,2,FALSE)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>67</v>
-      </c>
-      <c r="B39" s="1">
-        <v>995</v>
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <v>20060</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
         <v>97</v>
@@ -2076,13 +2093,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>68</v>
-      </c>
-      <c r="B40" s="1">
-        <v>3710</v>
+        <v>67</v>
+      </c>
+      <c r="B40">
+        <v>4153</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
         <v>97</v>
@@ -2094,49 +2111,49 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>69</v>
-      </c>
-      <c r="B41" s="1">
-        <v>256208</v>
+        <v>68</v>
+      </c>
+      <c r="B41">
+        <v>6477</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E41">
         <f>VLOOKUP(D41,$G$3:$H$22,2,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>70</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="B42">
+        <v>644888</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E42">
         <f>VLOOKUP(D42,$G$3:$H$22,2,FALSE)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>71</v>
-      </c>
-      <c r="B43" s="1">
-        <v>980</v>
+        <v>70</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
         <v>97</v>
@@ -2148,13 +2165,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>72</v>
-      </c>
-      <c r="B44" s="1">
-        <v>776</v>
+        <v>71</v>
+      </c>
+      <c r="B44">
+        <v>2602</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
         <v>97</v>
@@ -2166,31 +2183,31 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>74</v>
-      </c>
-      <c r="B45" s="1">
-        <v>741</v>
+        <v>72</v>
+      </c>
+      <c r="B45">
+        <v>1411</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E45">
         <f>VLOOKUP(D45,$G$3:$H$22,2,FALSE)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>75</v>
-      </c>
-      <c r="B46" s="1">
-        <v>418912</v>
+        <v>74</v>
+      </c>
+      <c r="B46">
+        <v>1236</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
         <v>96</v>
@@ -2202,13 +2219,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>76</v>
-      </c>
-      <c r="B47" s="1">
-        <v>194182</v>
+        <v>75</v>
+      </c>
+      <c r="B47">
+        <v>618645</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
         <v>96</v>
@@ -2220,49 +2237,49 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>77</v>
-      </c>
-      <c r="B48" s="1">
-        <v>24933</v>
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <v>426986</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E48">
         <f>VLOOKUP(D48,$G$3:$H$22,2,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>92</v>
-      </c>
-      <c r="B49" s="1">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <v>25651</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E49">
         <f>VLOOKUP(D49,$G$3:$H$22,2,FALSE)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>111</v>
-      </c>
-      <c r="B50" s="1">
-        <v>350697</v>
+        <v>92</v>
+      </c>
+      <c r="B50">
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
         <v>86</v>
@@ -2274,13 +2291,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>112</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2</v>
+        <v>111</v>
+      </c>
+      <c r="B51">
+        <v>644295</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
         <v>86</v>
@@ -2292,31 +2309,31 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>121</v>
-      </c>
-      <c r="B52" s="1">
-        <v>331857</v>
+        <v>112</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <f>VLOOKUP(D52,$G$3:$H$22,2,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>122</v>
-      </c>
-      <c r="B53" s="1">
-        <v>348602</v>
+        <v>121</v>
+      </c>
+      <c r="B53">
+        <v>625385</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
         <v>90</v>
@@ -2328,13 +2345,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>123</v>
-      </c>
-      <c r="B54" s="1">
-        <v>587223</v>
+        <v>122</v>
+      </c>
+      <c r="B54">
+        <v>562565</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
         <v>90</v>
@@ -2346,13 +2363,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>124</v>
-      </c>
-      <c r="B55" s="1">
-        <v>202875</v>
+        <v>123</v>
+      </c>
+      <c r="B55">
+        <v>869113</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
         <v>90</v>
@@ -2364,49 +2381,49 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>131</v>
-      </c>
-      <c r="B56" s="1">
-        <v>30281</v>
+        <v>124</v>
+      </c>
+      <c r="B56">
+        <v>290025</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <f>VLOOKUP(D56,$G$3:$H$22,2,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>141</v>
-      </c>
-      <c r="B57" s="1">
-        <v>3642</v>
+        <v>131</v>
+      </c>
+      <c r="B57">
+        <v>41254</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="E57">
         <f>VLOOKUP(D57,$G$3:$H$22,2,FALSE)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>142</v>
-      </c>
-      <c r="B58" s="1">
-        <v>59490</v>
+        <v>141</v>
+      </c>
+      <c r="B58">
+        <v>39636</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" t="s">
         <v>87</v>
@@ -2418,13 +2435,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>143</v>
-      </c>
-      <c r="B59" s="1">
-        <v>45365</v>
+        <v>142</v>
+      </c>
+      <c r="B59">
+        <v>522237</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
         <v>87</v>
@@ -2436,67 +2453,67 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>152</v>
-      </c>
-      <c r="B60" s="1">
-        <v>814149</v>
+        <v>143</v>
+      </c>
+      <c r="B60">
+        <v>269201</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <f>VLOOKUP(D60,$G$3:$H$22,2,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>176</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1722912</v>
+        <v>152</v>
+      </c>
+      <c r="B61">
+        <v>2410539</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="E61">
         <f>VLOOKUP(D61,$G$3:$H$22,2,FALSE)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>190</v>
-      </c>
-      <c r="B62" s="1">
-        <v>33384</v>
+        <v>176</v>
+      </c>
+      <c r="B62">
+        <v>2950761</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E62">
         <f>VLOOKUP(D62,$G$3:$H$22,2,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>195</v>
-      </c>
-      <c r="B63" s="1">
-        <v>376968</v>
+        <v>190</v>
+      </c>
+      <c r="B63">
+        <v>67525</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" t="s">
         <v>91</v>
@@ -2508,67 +2525,67 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>204</v>
-      </c>
-      <c r="B64" s="1">
-        <v>14737</v>
+        <v>195</v>
+      </c>
+      <c r="B64">
+        <v>497777</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <f>VLOOKUP(D64,$G$3:$H$22,2,FALSE)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>205</v>
-      </c>
-      <c r="B65" s="1">
-        <v>96084</v>
+        <v>204</v>
+      </c>
+      <c r="B65">
+        <v>18174</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E65">
         <f>VLOOKUP(D65,$G$3:$H$22,2,FALSE)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>206</v>
-      </c>
-      <c r="B66" s="1">
-        <v>720</v>
+        <v>205</v>
+      </c>
+      <c r="B66">
+        <v>109237</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E66">
         <f>VLOOKUP(D66,$G$3:$H$22,2,FALSE)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>208</v>
-      </c>
-      <c r="B67" s="1">
-        <v>1947</v>
+        <v>206</v>
+      </c>
+      <c r="B67">
+        <v>1109</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D67" t="s">
         <v>99</v>
@@ -2580,13 +2597,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>209</v>
-      </c>
-      <c r="B68" s="1">
-        <v>387</v>
+        <v>208</v>
+      </c>
+      <c r="B68">
+        <v>2367</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
         <v>99</v>
@@ -2598,67 +2615,67 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>211</v>
-      </c>
-      <c r="B69" s="1">
-        <v>27128</v>
+        <v>209</v>
+      </c>
+      <c r="B69">
+        <v>507</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E69">
         <f>VLOOKUP(D69,$G$3:$H$22,2,FALSE)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>212</v>
-      </c>
-      <c r="B70" s="1">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="B70">
+        <v>42725</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E70">
         <f>VLOOKUP(D70,$G$3:$H$22,2,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>213</v>
-      </c>
-      <c r="B71" s="1">
-        <v>6202</v>
+        <v>212</v>
+      </c>
+      <c r="B71">
+        <v>495</v>
       </c>
       <c r="C71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E71">
         <f>VLOOKUP(D71,$G$3:$H$22,2,FALSE)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>214</v>
-      </c>
-      <c r="B72" s="1">
-        <v>116</v>
+        <v>213</v>
+      </c>
+      <c r="B72">
+        <v>7166</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" t="s">
         <v>99</v>
@@ -2670,13 +2687,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>216</v>
-      </c>
-      <c r="B73" s="1">
-        <v>4154</v>
+        <v>214</v>
+      </c>
+      <c r="B73">
+        <v>124</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
         <v>99</v>
@@ -2688,49 +2705,49 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>217</v>
-      </c>
-      <c r="B74" s="1">
-        <v>193</v>
+        <v>216</v>
+      </c>
+      <c r="B74">
+        <v>4327</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74">
         <f>VLOOKUP(D74,$G$3:$H$22,2,FALSE)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>219</v>
-      </c>
-      <c r="B75" s="1">
-        <v>84</v>
+        <v>217</v>
+      </c>
+      <c r="B75">
+        <v>382</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E75">
         <f>VLOOKUP(D75,$G$3:$H$22,2,FALSE)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>220</v>
-      </c>
-      <c r="B76" s="1">
-        <v>17252</v>
+        <v>218</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D76" t="s">
         <v>97</v>
@@ -2742,121 +2759,121 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>221</v>
-      </c>
-      <c r="B77" s="1">
-        <v>423</v>
+        <v>219</v>
+      </c>
+      <c r="B77">
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E77">
         <f>VLOOKUP(D77,$G$3:$H$22,2,FALSE)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>222</v>
-      </c>
-      <c r="B78" s="1">
-        <v>1365</v>
+        <v>220</v>
+      </c>
+      <c r="B78">
+        <v>54592</v>
       </c>
       <c r="C78" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D78" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E78">
         <f>VLOOKUP(D78,$G$3:$H$22,2,FALSE)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>224</v>
-      </c>
-      <c r="B79" s="1">
-        <v>2390</v>
+        <v>221</v>
+      </c>
+      <c r="B79">
+        <v>701</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D79" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="E79">
         <f>VLOOKUP(D79,$G$3:$H$22,2,FALSE)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>225</v>
-      </c>
-      <c r="B80" s="1">
-        <v>5093</v>
+        <v>222</v>
+      </c>
+      <c r="B80">
+        <v>1744</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D80" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E80">
         <f>VLOOKUP(D80,$G$3:$H$22,2,FALSE)</f>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>226</v>
-      </c>
-      <c r="B81" s="1">
-        <v>5149</v>
+        <v>224</v>
+      </c>
+      <c r="B81">
+        <v>5717</v>
       </c>
       <c r="C81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="E81">
         <f>VLOOKUP(D81,$G$3:$H$22,2,FALSE)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>227</v>
-      </c>
-      <c r="B82" s="1">
-        <v>257</v>
+        <v>225</v>
+      </c>
+      <c r="B82">
+        <v>14064</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D82" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <f>VLOOKUP(D82,$G$3:$H$22,2,FALSE)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>228</v>
-      </c>
-      <c r="B83" s="1">
-        <v>4151</v>
+        <v>226</v>
+      </c>
+      <c r="B83">
+        <v>7966</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
@@ -2868,13 +2885,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>229</v>
-      </c>
-      <c r="B84" s="1">
-        <v>382</v>
+        <v>227</v>
+      </c>
+      <c r="B84">
+        <v>466</v>
       </c>
       <c r="C84" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D84" t="s">
         <v>99</v>
@@ -2886,31 +2903,31 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>236</v>
-      </c>
-      <c r="B85" s="1">
-        <v>985</v>
+        <v>228</v>
+      </c>
+      <c r="B85">
+        <v>4356</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D85" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <f>VLOOKUP(D85,$G$3:$H$22,2,FALSE)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>242</v>
-      </c>
-      <c r="B86" s="1">
-        <v>2</v>
+        <v>229</v>
+      </c>
+      <c r="B86">
+        <v>423</v>
       </c>
       <c r="C86" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D86" t="s">
         <v>99</v>
@@ -2922,28 +2939,70 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>243</v>
-      </c>
-      <c r="B87" s="1">
-        <v>77</v>
+        <v>236</v>
+      </c>
+      <c r="B87">
+        <v>1138</v>
       </c>
       <c r="C87" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D87" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E87">
         <f>VLOOKUP(D87,$G$3:$H$22,2,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>242</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88">
+        <f>VLOOKUP(D88,$G$3:$H$22,2,FALSE)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>243</v>
+      </c>
+      <c r="B89">
+        <v>104</v>
+      </c>
+      <c r="C89" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" t="s">
+        <v>99</v>
+      </c>
+      <c r="E89">
+        <f>VLOOKUP(D89,$G$3:$H$22,2,FALSE)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <f>SUM(B2:B89)</f>
+        <v>15709188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E88">
-    <sortCondition ref="A1:A88"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E90">
+    <sortCondition ref="A1:A90"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2951,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2961,162 +3020,162 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>20</v>
       </c>
     </row>

--- a/data/GroundTruth/LandCover.xlsx
+++ b/data/GroundTruth/LandCover.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YunzZhu\Box\2022_Spring\STA208\FinalProject\STA_208_Final_RS_Classification\data\GroundTruth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4680F788-590C-4B89-A3D1-B147F8ED29A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CAAE88-6DE0-4769-9778-CCE49CB574CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2370" windowWidth="18645" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LandCover" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="103">
   <si>
     <t>groundType</t>
   </si>
@@ -668,7 +668,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -845,6 +845,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -890,7 +945,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -901,6 +956,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1256,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:H22"/>
+      <selection activeCell="F2" sqref="F2:F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,7 +1335,7 @@
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1288,7 +1349,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1302,10 +1363,15 @@
         <v>86</v>
       </c>
       <c r="E2">
+        <f t="shared" ref="E2:F34" si="0">VLOOKUP(D2,$G$3:$H$22,2,FALSE)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>VLOOKUP(D2,$I$3:$J$22,2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1319,17 +1385,27 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP(D3,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="1">VLOOKUP(D3,$I$3:$J$22,2,FALSE)</f>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1343,17 +1419,27 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <f>VLOOKUP(D4,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1367,17 +1453,27 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <f>VLOOKUP(D5,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1391,17 +1487,27 @@
         <v>88</v>
       </c>
       <c r="E6">
-        <f>VLOOKUP(D6,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1415,17 +1521,27 @@
         <v>99</v>
       </c>
       <c r="E7">
-        <f>VLOOKUP(D7,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1439,17 +1555,27 @@
         <v>94</v>
       </c>
       <c r="E8">
-        <f>VLOOKUP(D8,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="14">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1463,17 +1589,27 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <f>VLOOKUP(D9,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1487,17 +1623,27 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <f>VLOOKUP(D10,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1511,17 +1657,27 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <f>VLOOKUP(D11,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="14">
+        <v>9</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21</v>
       </c>
@@ -1535,17 +1691,27 @@
         <v>88</v>
       </c>
       <c r="E12">
-        <f>VLOOKUP(D12,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>22</v>
       </c>
@@ -1559,17 +1725,27 @@
         <v>88</v>
       </c>
       <c r="E13">
-        <f>VLOOKUP(D13,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="14">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23</v>
       </c>
@@ -1583,17 +1759,27 @@
         <v>88</v>
       </c>
       <c r="E14">
-        <f>VLOOKUP(D14,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24</v>
       </c>
@@ -1607,17 +1793,27 @@
         <v>88</v>
       </c>
       <c r="E15">
-        <f>VLOOKUP(D15,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="14">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>27</v>
       </c>
@@ -1631,17 +1827,27 @@
         <v>88</v>
       </c>
       <c r="E16">
-        <f>VLOOKUP(D16,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="14">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>28</v>
       </c>
@@ -1655,17 +1861,27 @@
         <v>88</v>
       </c>
       <c r="E17">
-        <f>VLOOKUP(D17,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>29</v>
       </c>
@@ -1679,17 +1895,27 @@
         <v>88</v>
       </c>
       <c r="E18">
-        <f>VLOOKUP(D18,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="14">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31</v>
       </c>
@@ -1703,17 +1929,27 @@
         <v>94</v>
       </c>
       <c r="E19">
-        <f>VLOOKUP(D19,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="14">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>33</v>
       </c>
@@ -1727,17 +1963,27 @@
         <v>94</v>
       </c>
       <c r="E20">
-        <f>VLOOKUP(D20,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="14">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>36</v>
       </c>
@@ -1751,17 +1997,27 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <f>VLOOKUP(D21,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="14">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>37</v>
       </c>
@@ -1775,17 +2031,27 @@
         <v>95</v>
       </c>
       <c r="E22">
-        <f>VLOOKUP(D22,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="15">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>39</v>
       </c>
@@ -1799,11 +2065,15 @@
         <v>88</v>
       </c>
       <c r="E23">
-        <f>VLOOKUP(D23,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>42</v>
       </c>
@@ -1817,11 +2087,15 @@
         <v>98</v>
       </c>
       <c r="E24">
-        <f>VLOOKUP(D24,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>43</v>
       </c>
@@ -1835,11 +2109,15 @@
         <v>98</v>
       </c>
       <c r="E25">
-        <f>VLOOKUP(D25,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>44</v>
       </c>
@@ -1853,11 +2131,15 @@
         <v>22</v>
       </c>
       <c r="E26">
-        <f>VLOOKUP(D26,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>46</v>
       </c>
@@ -1871,11 +2153,15 @@
         <v>98</v>
       </c>
       <c r="E27">
-        <f>VLOOKUP(D27,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>47</v>
       </c>
@@ -1889,11 +2175,15 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <f>VLOOKUP(D28,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>48</v>
       </c>
@@ -1907,11 +2197,15 @@
         <v>99</v>
       </c>
       <c r="E29">
-        <f>VLOOKUP(D29,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>49</v>
       </c>
@@ -1925,11 +2219,15 @@
         <v>99</v>
       </c>
       <c r="E30">
-        <f>VLOOKUP(D30,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>50</v>
       </c>
@@ -1943,11 +2241,15 @@
         <v>99</v>
       </c>
       <c r="E31">
-        <f>VLOOKUP(D31,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>51</v>
       </c>
@@ -1961,11 +2263,15 @@
         <v>88</v>
       </c>
       <c r="E32">
-        <f>VLOOKUP(D32,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>53</v>
       </c>
@@ -1979,11 +2285,15 @@
         <v>99</v>
       </c>
       <c r="E33">
-        <f>VLOOKUP(D33,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>54</v>
       </c>
@@ -1997,11 +2307,15 @@
         <v>99</v>
       </c>
       <c r="E34">
-        <f>VLOOKUP(D34,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>57</v>
       </c>
@@ -2015,11 +2329,15 @@
         <v>18</v>
       </c>
       <c r="E35">
-        <f>VLOOKUP(D35,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" ref="E35:E66" si="2">VLOOKUP(D35,$G$3:$H$22,2,FALSE)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>58</v>
       </c>
@@ -2033,11 +2351,15 @@
         <v>94</v>
       </c>
       <c r="E36">
-        <f>VLOOKUP(D36,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>59</v>
       </c>
@@ -2051,11 +2373,15 @@
         <v>85</v>
       </c>
       <c r="E37">
-        <f>VLOOKUP(D37,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>61</v>
       </c>
@@ -2069,11 +2395,15 @@
         <v>92</v>
       </c>
       <c r="E38">
-        <f>VLOOKUP(D38,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>66</v>
       </c>
@@ -2087,11 +2417,15 @@
         <v>97</v>
       </c>
       <c r="E39">
-        <f>VLOOKUP(D39,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>67</v>
       </c>
@@ -2105,11 +2439,15 @@
         <v>97</v>
       </c>
       <c r="E40">
-        <f>VLOOKUP(D40,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>68</v>
       </c>
@@ -2123,11 +2461,15 @@
         <v>97</v>
       </c>
       <c r="E41">
-        <f>VLOOKUP(D41,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>69</v>
       </c>
@@ -2141,11 +2483,15 @@
         <v>38</v>
       </c>
       <c r="E42">
-        <f>VLOOKUP(D42,$G$3:$H$22,2,FALSE)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>70</v>
       </c>
@@ -2159,11 +2505,15 @@
         <v>97</v>
       </c>
       <c r="E43">
-        <f>VLOOKUP(D43,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>71</v>
       </c>
@@ -2177,11 +2527,15 @@
         <v>97</v>
       </c>
       <c r="E44">
-        <f>VLOOKUP(D44,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>72</v>
       </c>
@@ -2195,11 +2549,15 @@
         <v>97</v>
       </c>
       <c r="E45">
-        <f>VLOOKUP(D45,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>74</v>
       </c>
@@ -2213,11 +2571,15 @@
         <v>96</v>
       </c>
       <c r="E46">
-        <f>VLOOKUP(D46,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>75</v>
       </c>
@@ -2231,11 +2593,15 @@
         <v>96</v>
       </c>
       <c r="E47">
-        <f>VLOOKUP(D47,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>76</v>
       </c>
@@ -2249,11 +2615,15 @@
         <v>96</v>
       </c>
       <c r="E48">
-        <f>VLOOKUP(D48,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>77</v>
       </c>
@@ -2267,11 +2637,15 @@
         <v>97</v>
       </c>
       <c r="E49">
-        <f>VLOOKUP(D49,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>92</v>
       </c>
@@ -2285,11 +2659,15 @@
         <v>86</v>
       </c>
       <c r="E50">
-        <f>VLOOKUP(D50,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>111</v>
       </c>
@@ -2303,11 +2681,15 @@
         <v>86</v>
       </c>
       <c r="E51">
-        <f>VLOOKUP(D51,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>112</v>
       </c>
@@ -2321,11 +2703,15 @@
         <v>86</v>
       </c>
       <c r="E52">
-        <f>VLOOKUP(D52,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>121</v>
       </c>
@@ -2339,11 +2725,15 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <f>VLOOKUP(D53,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>122</v>
       </c>
@@ -2357,11 +2747,15 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <f>VLOOKUP(D54,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>123</v>
       </c>
@@ -2375,11 +2769,15 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <f>VLOOKUP(D55,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>124</v>
       </c>
@@ -2393,11 +2791,15 @@
         <v>90</v>
       </c>
       <c r="E56">
-        <f>VLOOKUP(D56,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>131</v>
       </c>
@@ -2411,11 +2813,15 @@
         <v>53</v>
       </c>
       <c r="E57">
-        <f>VLOOKUP(D57,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>141</v>
       </c>
@@ -2429,11 +2835,15 @@
         <v>87</v>
       </c>
       <c r="E58">
-        <f>VLOOKUP(D58,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>142</v>
       </c>
@@ -2447,11 +2857,15 @@
         <v>87</v>
       </c>
       <c r="E59">
-        <f>VLOOKUP(D59,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>143</v>
       </c>
@@ -2465,11 +2879,15 @@
         <v>87</v>
       </c>
       <c r="E60">
-        <f>VLOOKUP(D60,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>152</v>
       </c>
@@ -2483,11 +2901,15 @@
         <v>57</v>
       </c>
       <c r="E61">
-        <f>VLOOKUP(D61,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>176</v>
       </c>
@@ -2501,11 +2923,15 @@
         <v>85</v>
       </c>
       <c r="E62">
-        <f>VLOOKUP(D62,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>190</v>
       </c>
@@ -2519,11 +2945,15 @@
         <v>91</v>
       </c>
       <c r="E63">
-        <f>VLOOKUP(D63,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>195</v>
       </c>
@@ -2537,11 +2967,15 @@
         <v>91</v>
       </c>
       <c r="E64">
-        <f>VLOOKUP(D64,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>204</v>
       </c>
@@ -2555,11 +2989,15 @@
         <v>96</v>
       </c>
       <c r="E65">
-        <f>VLOOKUP(D65,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>205</v>
       </c>
@@ -2573,11 +3011,15 @@
         <v>88</v>
       </c>
       <c r="E66">
-        <f>VLOOKUP(D66,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>206</v>
       </c>
@@ -2591,11 +3033,15 @@
         <v>99</v>
       </c>
       <c r="E67">
-        <f>VLOOKUP(D67,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" ref="E67:E98" si="3">VLOOKUP(D67,$G$3:$H$22,2,FALSE)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" ref="F67:F89" si="4">VLOOKUP(D67,$I$3:$J$22,2,FALSE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>208</v>
       </c>
@@ -2609,11 +3055,15 @@
         <v>99</v>
       </c>
       <c r="E68">
-        <f>VLOOKUP(D68,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>209</v>
       </c>
@@ -2627,11 +3077,15 @@
         <v>99</v>
       </c>
       <c r="E69">
-        <f>VLOOKUP(D69,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>211</v>
       </c>
@@ -2645,11 +3099,15 @@
         <v>96</v>
       </c>
       <c r="E70">
-        <f>VLOOKUP(D70,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>212</v>
       </c>
@@ -2663,11 +3121,15 @@
         <v>97</v>
       </c>
       <c r="E71">
-        <f>VLOOKUP(D71,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>213</v>
       </c>
@@ -2681,11 +3143,15 @@
         <v>99</v>
       </c>
       <c r="E72">
-        <f>VLOOKUP(D72,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>214</v>
       </c>
@@ -2699,11 +3165,15 @@
         <v>99</v>
       </c>
       <c r="E73">
-        <f>VLOOKUP(D73,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>216</v>
       </c>
@@ -2717,11 +3187,15 @@
         <v>99</v>
       </c>
       <c r="E74">
-        <f>VLOOKUP(D74,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>217</v>
       </c>
@@ -2735,11 +3209,15 @@
         <v>97</v>
       </c>
       <c r="E75">
-        <f>VLOOKUP(D75,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>218</v>
       </c>
@@ -2753,11 +3231,15 @@
         <v>97</v>
       </c>
       <c r="E76">
-        <f>VLOOKUP(D76,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>219</v>
       </c>
@@ -2771,11 +3253,15 @@
         <v>99</v>
       </c>
       <c r="E77">
-        <f>VLOOKUP(D77,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>220</v>
       </c>
@@ -2789,11 +3275,15 @@
         <v>97</v>
       </c>
       <c r="E78">
-        <f>VLOOKUP(D78,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>221</v>
       </c>
@@ -2807,11 +3297,15 @@
         <v>22</v>
       </c>
       <c r="E79">
-        <f>VLOOKUP(D79,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>222</v>
       </c>
@@ -2825,11 +3319,15 @@
         <v>99</v>
       </c>
       <c r="E80">
-        <f>VLOOKUP(D80,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>224</v>
       </c>
@@ -2843,11 +3341,15 @@
         <v>94</v>
       </c>
       <c r="E81">
-        <f>VLOOKUP(D81,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>225</v>
       </c>
@@ -2861,11 +3363,15 @@
         <v>2</v>
       </c>
       <c r="E82">
-        <f>VLOOKUP(D82,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>226</v>
       </c>
@@ -2879,11 +3385,15 @@
         <v>2</v>
       </c>
       <c r="E83">
-        <f>VLOOKUP(D83,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>227</v>
       </c>
@@ -2897,11 +3407,15 @@
         <v>99</v>
       </c>
       <c r="E84">
-        <f>VLOOKUP(D84,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>228</v>
       </c>
@@ -2915,11 +3429,15 @@
         <v>2</v>
       </c>
       <c r="E85">
-        <f>VLOOKUP(D85,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>229</v>
       </c>
@@ -2933,11 +3451,15 @@
         <v>99</v>
       </c>
       <c r="E86">
-        <f>VLOOKUP(D86,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>236</v>
       </c>
@@ -2951,11 +3473,15 @@
         <v>88</v>
       </c>
       <c r="E87">
-        <f>VLOOKUP(D87,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>242</v>
       </c>
@@ -2969,11 +3495,15 @@
         <v>99</v>
       </c>
       <c r="E88">
-        <f>VLOOKUP(D88,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>243</v>
       </c>
@@ -2987,17 +3517,21 @@
         <v>99</v>
       </c>
       <c r="E89">
-        <f>VLOOKUP(D89,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <f>SUM(B2:B89)</f>
         <v>15709188</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
     </row>
   </sheetData>

--- a/data/GroundTruth/LandCover.xlsx
+++ b/data/GroundTruth/LandCover.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YunzZhu\Box\2022_Spring\STA208\FinalProject\STA_208_Final_RS_Classification\data\GroundTruth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CAAE88-6DE0-4769-9778-CCE49CB574CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5466FFD8-2582-4D50-AD54-F48D80C8DC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LandCover" sheetId="1" r:id="rId1"/>
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F89"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1363,7 @@
         <v>86</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:F34" si="0">VLOOKUP(D2,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" ref="E2:E34" si="0">VLOOKUP(D2,$G$3:$H$22,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F2">
@@ -3033,7 +3033,7 @@
         <v>99</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E98" si="3">VLOOKUP(D67,$G$3:$H$22,2,FALSE)</f>
+        <f t="shared" ref="E67:E89" si="3">VLOOKUP(D67,$G$3:$H$22,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="F67">
